--- a/data/trans_camb/P57_AF_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>16.60328575281608</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.340964619889245</v>
+        <v>7.340964619889235</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>12.30120605695404</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.775216450063922</v>
+        <v>-5.145662109703752</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.96883506914086</v>
+        <v>11.30249927838261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.052282993122747</v>
+        <v>0.3760196915099643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.729153701658934</v>
+        <v>7.840859255210011</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>19.48685470993207</v>
+        <v>19.63607252970471</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.711048899636014</v>
+        <v>9.70482334433142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.67509142409011</v>
+        <v>3.728353171677504</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.55527398757212</v>
+        <v>17.6988224718282</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.014682094355834</v>
+        <v>8.171023877077035</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.235692038076837</v>
+        <v>5.050635565094034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.45487075690568</v>
+        <v>21.04784230518616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.3662375261244</v>
+        <v>13.07634545225228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.74210246392953</v>
+        <v>16.66594310904045</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>27.33302458446388</v>
+        <v>27.53923011672866</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.94752982790302</v>
+        <v>19.13201146806973</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.60045987661001</v>
+        <v>10.19931750992318</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.68923070422736</v>
+        <v>23.70620249269074</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.15215784148944</v>
+        <v>15.25551912425393</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2624409753464866</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1160354609027324</v>
+        <v>0.1160354609027322</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2176054838818254</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07216592246287111</v>
+        <v>-0.07828895515127333</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1793331495597429</v>
+        <v>0.1686045330005317</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01610390867632915</v>
+        <v>0.005147497910861885</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1302476169023968</v>
+        <v>0.1312541667804261</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3302383957090538</v>
+        <v>0.3324279194150578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1671953440668762</v>
+        <v>0.1644190949303193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06005501807057891</v>
+        <v>0.06124207566704774</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2873015785250168</v>
+        <v>0.2869578579887064</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1313391243226063</v>
+        <v>0.1364042877063705</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08796994940606979</v>
+        <v>0.08451888947861926</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3613415686849885</v>
+        <v>0.3542542321867756</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2273161206159005</v>
+        <v>0.2165172347321884</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3130886559037443</v>
+        <v>0.3079529922837905</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5070000348776449</v>
+        <v>0.5166571634445933</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3496622617349496</v>
+        <v>0.3521863622237242</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1865452432736371</v>
+        <v>0.1787560582063211</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4146186610101718</v>
+        <v>0.414533483639339</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2655710772424087</v>
+        <v>0.2671573055495093</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>15.24083188265936</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.360777031753029</v>
+        <v>7.360777031753041</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.187347774341324</v>
@@ -869,7 +869,7 @@
         <v>15.54742759765287</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.419144551848243</v>
+        <v>5.419144551848232</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.113832902043224</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.655542256771469</v>
+        <v>-2.027459835673658</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.67031971170488</v>
+        <v>11.12522469507277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.59717973929274</v>
+        <v>2.375481284986693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.838544900419567</v>
+        <v>2.895761903568856</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>11.54685403319181</v>
+        <v>11.49305421917074</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.7355992255442</v>
+        <v>1.390468953390999</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.248536558916399</v>
+        <v>2.12336845846905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.76942698385266</v>
+        <v>12.54067049298219</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.679245636187533</v>
+        <v>3.426007586885954</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.992424659471613</v>
+        <v>6.787443927719396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.48972448240269</v>
+        <v>19.61927230144392</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.25561187171285</v>
+        <v>11.67284033325842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.20784047522556</v>
+        <v>11.1662957505943</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.53829189019921</v>
+        <v>19.50765318372513</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.325708719795079</v>
+        <v>9.152613945319235</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.071415632490217</v>
+        <v>8.071454833538173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.41300474282669</v>
+        <v>18.21787447755187</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.342216448423995</v>
+        <v>9.556863383394059</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2532068921090282</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.122289878273527</v>
+        <v>0.1222898782735272</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1161265471516638</v>
@@ -974,7 +974,7 @@
         <v>0.2512010188864661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08755754766292199</v>
+        <v>0.08755754766292181</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.08378701357411014</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02712050945485856</v>
+        <v>-0.03293746715427959</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1719900124574347</v>
+        <v>0.1768574260558745</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.04160773388170343</v>
+        <v>0.03985982642241664</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04346542803164578</v>
+        <v>0.04539826920888304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1822299970755092</v>
+        <v>0.1803397195062963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02712779776996911</v>
+        <v>0.02308058334051555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0358645191513454</v>
+        <v>0.03290848057848565</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2041592877554074</v>
+        <v>0.2004210504848806</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05836229231948271</v>
+        <v>0.05442086660921869</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1198236228323386</v>
+        <v>0.1165033021191888</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.339103534995042</v>
+        <v>0.3412451648132712</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2122677848396779</v>
+        <v>0.2029633148767037</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1871063056541462</v>
+        <v>0.187861414715163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3271161732724551</v>
+        <v>0.326496040198145</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1556100306159372</v>
+        <v>0.1558367958309398</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1351840993903598</v>
+        <v>0.1351797452194961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3098337289706097</v>
+        <v>0.3084094986368608</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1569967008028191</v>
+        <v>0.1601575508893024</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>13.61614163180266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.375892394731888</v>
+        <v>-9.375892394731878</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.932540803556284</v>
@@ -1083,7 +1083,7 @@
         <v>9.600402424940469</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-12.55923966737329</v>
+        <v>-12.55923966737328</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.410120296725484</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.05112591059564221</v>
+        <v>0.07916750972232893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.168781761233813</v>
+        <v>9.092011097526258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.72963921373549</v>
+        <v>-13.88277183207342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4834884871159003</v>
+        <v>-0.4781932868616804</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.278754129614574</v>
+        <v>5.078367642006032</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.70748215148254</v>
+        <v>-16.99022115810688</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.314237270044399</v>
+        <v>1.23446786309142</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.732813208046217</v>
+        <v>8.731564848718353</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.96438595481919</v>
+        <v>-13.86945315768474</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.963469674917256</v>
+        <v>8.66996878477617</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.00280188150922</v>
+        <v>17.94370933728123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.394219891618265</v>
+        <v>-4.887391340011435</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.322705152075816</v>
+        <v>8.024240814465312</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.98831446160597</v>
+        <v>14.40437389600122</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.168753674824526</v>
+        <v>-8.389562363975143</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.616335289979317</v>
+        <v>7.336213910205267</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.9531180507094</v>
+        <v>14.7267795566029</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.774896467659762</v>
+        <v>-7.810567268163954</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2284026733224482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1572750156137191</v>
+        <v>-0.1572750156137189</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06063281810084516</v>
@@ -1188,7 +1188,7 @@
         <v>0.1480212114773031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1936412442429385</v>
+        <v>-0.1936412442429383</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.07103896949816699</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.000112316238105733</v>
+        <v>0.001153123458107008</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1499096037897269</v>
+        <v>0.1497473740662751</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2243595364284247</v>
+        <v>-0.2272705608009346</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.008234835989676708</v>
+        <v>-0.006775982586858009</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0790070301474845</v>
+        <v>0.07531859841138709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2495354282663553</v>
+        <v>-0.2522984130290042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01973532648942302</v>
+        <v>0.01895783256905809</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1367494332574639</v>
+        <v>0.1375650905245477</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2200349896010852</v>
+        <v>-0.2187990991353047</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1579374063180061</v>
+        <v>0.1504843730752398</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3148037391154598</v>
+        <v>0.3133946304890277</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0775857079460316</v>
+        <v>-0.08574366343531889</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1320219892037277</v>
+        <v>0.1293825019915189</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.225135902717136</v>
+        <v>0.2290948167945236</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1319791648020659</v>
+        <v>-0.1339431094132708</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.124990226524829</v>
+        <v>0.1195325146018077</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2472237385584669</v>
+        <v>0.2435061092591769</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1290631720935256</v>
+        <v>-0.1284710934968204</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.441063478452121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-13.16440168898824</v>
+        <v>-13.16440168898823</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.245074788075167</v>
@@ -1297,7 +1297,7 @@
         <v>6.30997607280368</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-13.72529912770561</v>
+        <v>-13.72529912770559</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-6.924871038785884</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.66002508346413</v>
+        <v>-13.52759549796798</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.941921651464574</v>
+        <v>-8.602480371931915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.30516617372878</v>
+        <v>-18.96424940108708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.35395904672253</v>
+        <v>-13.53914512976858</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.03994752688881237</v>
+        <v>-0.572308206586842</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-19.16205599826227</v>
+        <v>-19.27382893032823</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.70949000044627</v>
+        <v>-11.54298229088892</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.717078717239656</v>
+        <v>-2.845074700205017</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-18.0689609906355</v>
+        <v>-17.53289392008133</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.7705005355986503</v>
+        <v>-0.7148402037010915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.882533962658087</v>
+        <v>3.923611582121787</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.461443006042185</v>
+        <v>-7.360893986303352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9550814372194837</v>
+        <v>1.206734144416324</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.46402778601073</v>
+        <v>13.41534826831895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-7.508171047046602</v>
+        <v>-7.194006516407015</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.754052657783509</v>
+        <v>-2.247929822681226</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.55202567880719</v>
+        <v>6.31511122729038</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.176999230537826</v>
+        <v>-9.347512265050172</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.03999353838080635</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2156809967689785</v>
+        <v>-0.2156809967689783</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1054311289865398</v>
@@ -1402,7 +1402,7 @@
         <v>0.1065268109365254</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.231714404041266</v>
+        <v>-0.2317144040412656</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1149267594839271</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2127290436484148</v>
+        <v>-0.2122190316420607</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1392998392611142</v>
+        <v>-0.1329670302453242</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2978330915128211</v>
+        <v>-0.2917624975064455</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2134150149858985</v>
+        <v>-0.2128214142581071</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.001223640951990527</v>
+        <v>-0.008463896907674583</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3040784956588282</v>
+        <v>-0.3065061013294051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1889711983675859</v>
+        <v>-0.1874472580093443</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04335320583086533</v>
+        <v>-0.04363821749885535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2823332375196383</v>
+        <v>-0.2772517807952696</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01305174599888876</v>
+        <v>-0.01385238749780917</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.067401755352604</v>
+        <v>0.06784727165421117</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1321528615043147</v>
+        <v>-0.1290059742552348</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01580300641824131</v>
+        <v>0.02169273963138423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2455461709087717</v>
+        <v>0.2442346249391029</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1375455722388861</v>
+        <v>-0.1332234927769695</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.03032942909177659</v>
+        <v>-0.03999766555148012</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1163221142641496</v>
+        <v>0.1094484642085154</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1598197921010716</v>
+        <v>-0.1616679012149941</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.18218166094529</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.395937263579152</v>
+        <v>-3.395937263579141</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.867314231444965</v>
@@ -1520,7 +1520,7 @@
         <v>14.12724198525746</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.044741316112143</v>
+        <v>-3.044741316112121</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.009461505814984</v>
+        <v>-1.206619738667448</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.87899100673726</v>
+        <v>10.74013103152411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.101387160660918</v>
+        <v>-5.943589236224553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.617957960079391</v>
+        <v>3.795366712153602</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>12.83762803358948</v>
+        <v>12.78732666100174</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.925914218909057</v>
+        <v>-5.055338018141576</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.907611336590999</v>
+        <v>2.0119393495921</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>12.49485659008631</v>
+        <v>12.53929939330866</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.586393250718711</v>
+        <v>-4.817260646472897</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.642778409089894</v>
+        <v>3.664772746352658</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.43017311002351</v>
+        <v>15.46794439464189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.008108003400643</v>
+        <v>-0.8907799876018209</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.30971800810784</v>
+        <v>8.215951395184149</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.34732682279397</v>
+        <v>17.03050841698423</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.4267351404672394</v>
+        <v>-0.6017722394322736</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.263334791856089</v>
+        <v>5.559265302242584</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.64415019297233</v>
+        <v>15.76137099990982</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.302684545148995</v>
+        <v>-1.382112479306195</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2172971841174832</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.05597917126279874</v>
+        <v>-0.05597917126279855</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.09615856534668035</v>
@@ -1625,7 +1625,7 @@
         <v>0.2321916438770485</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05004256967539748</v>
+        <v>-0.05004256967539712</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01612480879744793</v>
+        <v>-0.01980586646533693</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1760728523697954</v>
+        <v>0.1734197592053514</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09840787248978257</v>
+        <v>-0.09610897370994792</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0584568838295078</v>
+        <v>0.0613011938331874</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2047337863918395</v>
+        <v>0.2045714288508032</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.079134304890304</v>
+        <v>-0.08050997635957094</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03119557652369546</v>
+        <v>0.03271628449771682</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2018769421267539</v>
+        <v>0.2038267792974977</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07420670180917444</v>
+        <v>-0.07683372159924183</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06140410420508142</v>
+        <v>0.06154677970269758</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2611372749994876</v>
+        <v>0.261299184723723</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.01643068423542615</v>
+        <v>-0.0144795763303906</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1391158432714827</v>
+        <v>0.1373549067689912</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2903471966237014</v>
+        <v>0.2848475258258727</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.007189315877542958</v>
+        <v>-0.01007372748864741</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08817674642305692</v>
+        <v>0.09301249598975117</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.262032681377695</v>
+        <v>0.2635861093919427</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.02183185259504598</v>
+        <v>-0.0226674196033355</v>
       </c>
     </row>
     <row r="34">
